--- a/system_management_function/システム管理関数.xlsx
+++ b/system_management_function/システム管理関数.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{39B85F88-5BDE-43C1-AE46-BA53C7ECC0B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{262ABC4B-862B-41BF-9D96-882D87C8961E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED405A8-C7CB-49BD-AD81-127BD57AB45B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="225">
   <si>
     <t>説明</t>
   </si>
@@ -2408,12 +2408,1508 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>表9.95 汎用ファイルアクセス関数</t>
+  </si>
+  <si>
+    <t>デフォルトではこの関数の実行はスーパーユーザに限定されますが、他のユーザに関数を実行するEXECUTE権限を与えることができます。</t>
+  </si>
+  <si>
+    <t>サーバのログディレクトリ内の各通常ファイルについて、名前、サイズ、最終更新時刻（mtime）を返します。 ドットで始まるファイル名、ディレクトリ名その他の特殊なファイルは含まれません。</t>
+  </si>
+  <si>
+    <t>先行書き込みログ（WAL）ディレクトリ内の各ファイルについて、名前、サイズ、最終更新時刻（mtime）を返します。 ドットで始まるファイル名、ディレクトリ名その他の特殊なファイルは含まれません。</t>
+  </si>
+  <si>
+    <t>SELECT convert_from(pg_read_binary_file('file_in_utf8.txt'), 'UTF8');</t>
+  </si>
+  <si>
+    <t>ファイル容量、最終アクセス時刻、最終更新時刻、最後にファイルステータスを変更した時刻（これはUnixプラットフォームのみ）、ファイル作成時刻（Windowsのみ）および、ディレクトリかどうかを示すフラグを返します。</t>
+  </si>
+  <si>
+    <t>デフォルトではこの関数の実行はスーパーユーザとpg_monitorロールのメンバーに限定されますが、他のユーザに関数を実行するEXECUTE権限を与えることができます。</t>
+  </si>
+  <si>
+    <t>デフォルトではこの関数の実行はスーパーユーザとpg_monitorロールに限定されますが、他のユーザに関数を実行するEXECUTE権限を与えることができます。</t>
+  </si>
+  <si>
+    <t>WALアーカイブステータスディレクトリ(pg_wal/archive_status)内の各ファイルについて、名前、サイズ、最終更新時刻（mtime）を返します。 ドットで始まるファイル名、ディレクトリ名その他の特殊なファイルは含まれません。</t>
+  </si>
+  <si>
+    <t>ファイルの一部あるいは全部を返します。 結果がtextではなくてbytea値となり、任意のバイナリデータを読み出すことができることを除き、pg_read_fileと同じです。 従って符号化方式の検査は行われません。</t>
+  </si>
+  <si>
+    <t>convert_from関数と組み合わせることで、この関数を、指定した符号化方式でファイルを読み込んでデータベース符号化方式に変換することができます。</t>
+  </si>
+  <si>
+    <r>
+      <t>指定されたディレクトリ内のすべてのファイル（およびディレクトリと他の特殊ファイル）の名前を返します。 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>include_dot_dirs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「.」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「..」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が結果集合に含まれるかどうかを指定します。 デフォルト(false)ではそれらを除外しますが、それらを含めると、</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>missing_ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がtrueの場合は、空のディレクトリと存在しないディレクトリを区別するために役立つでしょう。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>指定された</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tablespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内の一時ファイルディレクトリ内の各ファイルについて、名前、サイズ、最終更新時刻（mtime）を返します。 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tablespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が与えられなければpg_defaultテーブル空間が検査されます。 ドットで始まるファイル名、ディレクトリ名その他の特殊なファイルは含まれません。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>与えられた</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>から始まり、最大</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイト（先にファイルの終りに到達すればこれより少なくなります）テキストファイルの全部または一部分を返します。 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が負の場合にはファイルの終りから数えた位置から読み出します。 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が省略された場合、ファイル全体が返されます。 ファイルから読み込まれたバイトは、そのサーバの符号化方式での文字列として解釈されます。 読み込んだバイト列がその符号化方式において有効でない場合にはエラーが投げられます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pg_stat_file ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>missing_ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] ) → record ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>modification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>creation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>isdir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> boolean )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pg_ls_dir ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>dirname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>missing_ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> boolean, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>include_dot_dirs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] ) → setof text</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "select pg_ls_dir('.');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      pg_ls_dir</t>
+  </si>
+  <si>
+    <t>----------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> base</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> current_logfiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> global</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_commit_ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_dynshmem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_hba.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_ident.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_logical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_multixact</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_notify</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_replslot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_snapshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_stat_tmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_subtrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_tblspc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_twophase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PG_VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_wal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pg_xact</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> postgresql.auto.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> postmaster.opts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> postmaster.pid</t>
+  </si>
+  <si>
+    <t>(26 行)</t>
+  </si>
+  <si>
+    <r>
+      <t>pg_ls_logdir () → setof record ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>modification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone )</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                           pg_ls_logdir</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (postgresql-2021-12-31_000000.log,25231,"2021-12-31 23:33:44+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (postgresql-2022-01-01_000000.log,31861,"2022-01-01 22:37:51+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (postgresql-2022-01-02_000000.log,11691,"2022-01-03 07:59:36+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (postgresql-2022-01-03_000000.log,32273,"2022-01-04 10:38:54+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (postgresql-2022-01-04_000000.log,732,"2022-01-04 15:29:43+09")</t>
+  </si>
+  <si>
+    <t>(5 行)</t>
+  </si>
+  <si>
+    <r>
+      <t>pg_ls_waldir () → setof record ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>modification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone )</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                         pg_ls_waldir</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (000000010000000B00000054,16777216,"2022-02-05 21:35:09+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (000000010000000B00000055,16777216,"2022-01-04 10:36:24+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (000000010000000B00000056,16777216,"2022-01-04 10:36:26+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (000000010000000B00000057,16777216,"2022-01-04 10:36:29+09")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (000000010000000B00000058,16777216,"2022-01-04 10:36:31+09")</t>
+  </si>
+  <si>
+    <r>
+      <t>pg_ls_archive_statusdir () → setof record ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>modification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone )</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>pg_ls_tmpdir ( [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>tablespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> oid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] ) → setof record ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>modification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> timestamp with time zone )</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>explain (analyze, buffers)</t>
+  </si>
+  <si>
+    <t>WITH RECURSIVE T AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0 i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  , '' s</t>
+  </si>
+  <si>
+    <t>UNION ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    i + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  , repeat('a', i + 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WHERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    i &lt; 1e5 -- 100k </t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>TABLE T ORDER BY s DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "select pg_ls_logdir() LIMIT 5;"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "select pg_ls_waldir () LIMIT 5;"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1)pg_ls_dirの動作確認</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2)pg_ls_logdirの動作確認</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3)pg_ls_waldirの動作確認</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4)pg_ls_tmpdirの動作確認</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d postgres -c "SELECT * FROM pg_ls_tmpdir();"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       name       |   size    |      modification</t>
+  </si>
+  <si>
+    <t>------------------+-----------+------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pgsql_tmp12412.0 | 596451328 | 2022-02-05 22:32:52+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name | size | modification</t>
+  </si>
+  <si>
+    <t>------+------+--------------</t>
+  </si>
+  <si>
+    <t>(0 行)</t>
+  </si>
+  <si>
+    <t>下記クエリ実行します</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5)pg_ls_tmpdirを発行後、上記クエリを取り消しします</t>
+    <rPh sb="15" eb="17">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6)取り消し後に再度、確認すると一時ファイルが消えています</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d postgres -c "SELECT * FROM pg_ls_tmpdir();"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>pg_read_file ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>missing_ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> boolean ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] ) → text</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> postgresql.conf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   pg_read_file</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # -----------------------------\r                                                +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # PostgreSQL configuration file\r                                                +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #\r                                                                              +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # This file consists of lines of the form:\r                                     +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #   name = value\r                                                               +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # (The "=" is optional.)  Whitespace may be used.  Comments are introduced with\r+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # "#" anywhere on a line.  The complete list of parameter names and allowed\r    +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # values can be found in the PostgreSQL documentation.\r                         +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # The commented-out settings shown in this file represent the default values.\r  +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # Re-commenting a setting is NOT s</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d postgres -c "SELECT * FROM pg_read_file('postgresql.conf',0,500);"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7)pg_read_fileの動作確認</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>pg_read_binary_file ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> text [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> bigint [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>missing_ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> boolean ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] ) → bytea</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            pg_read_binary_file                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \x23202d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d0d0a2320506f737467726553514c20636f6e66696775726174696f6e2066696c650d0a23202d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d2d0d0a230d0a2320546869732066696c6520636f6e7369737473206f66206c696e6573206f662074686520666f726d3a0d0a230d0a232020206e616d65203d2076616c75650d0a230d0a23202854686520223d22206973206f7074696f6e616c2e29202057686974657370616365206d617920626520757365642e2020436f6d6d656e74732061726520696e74726f647563656420776974680d0a232022232220616e797768657265206f6e2061206c696e652e202054686520636f6d706c657465206c697374206f6620706172616d65746572206e616d657320616e6420616c6c6f7765640d0a232076616c7565732063616e20626520666f756e6420696e2074686520506f737467726553514c20646f63756d656e746174696f6e2e0d0a230d0a232054686520636f6d6d656e7465642d6f75742073657474696e67732073686f776e20696e20746869732066696c6520726570726573656e74207468652064656661756c742076616c7565732e0d0a232052652d636f6d6d656e74696e6720612073657474696e67206973204e4f542073</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d postgres -c "SELECT * FROM pg_read_binary_file('postgresql.conf',0,500);"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7)pg_read_binary_fileの動作確認</t>
+    <rPh sb="22" eb="24">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d postgres -c "SELECT * FROM pg_stat_file('postgresql.conf');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> size  |         access         |      modification      | change |        creation        | isdir</t>
+  </si>
+  <si>
+    <t>-------+------------------------+------------------------+--------+------------------------+-------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28812 | 2022-02-05 22:42:48+09 | 2021-12-26 08:03:10+09 |        | 2021-05-01 17:42:36+09 | f</t>
+  </si>
+  <si>
+    <t>8)pg_stat_fileの動作確認</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2541,6 +4037,59 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF440000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF440000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2636,7 +4185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2711,6 +4260,48 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
@@ -2994,10 +4585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B141"/>
+  <dimension ref="B1:B291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144:B153"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="A328" sqref="A293:XFD328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3626,6 +5217,704 @@
         <v>2</v>
       </c>
     </row>
+    <row r="144" spans="2:2" ht="19.5">
+      <c r="B144" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="20.25" thickBot="1">
+      <c r="B145" s="29"/>
+    </row>
+    <row r="146" spans="2:2" ht="19.5">
+      <c r="B146" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="20.25" thickBot="1">
+      <c r="B147" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="78">
+      <c r="B148" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="195">
+      <c r="B149" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="78.75" thickBot="1">
+      <c r="B150" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="78">
+      <c r="B151" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="117">
+      <c r="B152" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="98.25" thickBot="1">
+      <c r="B153" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="78">
+      <c r="B154" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="117">
+      <c r="B155" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="98.25" thickBot="1">
+      <c r="B156" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="78">
+      <c r="B157" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="136.5">
+      <c r="B158" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="98.25" thickBot="1">
+      <c r="B159" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="78">
+      <c r="B160" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="175.5">
+      <c r="B161" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="98.25" thickBot="1">
+      <c r="B162" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="58.5">
+      <c r="B163" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="273">
+      <c r="B164" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="78.75" thickBot="1">
+      <c r="B165" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="78">
+      <c r="B166" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="117">
+      <c r="B167" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="78">
+      <c r="B168" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="97.5">
+      <c r="B169" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="20.25" thickBot="1">
+      <c r="B170" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="156">
+      <c r="B171" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="136.5">
+      <c r="B172" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="78.75" thickBot="1">
+      <c r="B173" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" s="17" customFormat="1">
+      <c r="B175" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" s="17" customFormat="1">
+      <c r="B176" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" s="17" customFormat="1">
+      <c r="B177" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" s="17" customFormat="1">
+      <c r="B178" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" s="17" customFormat="1">
+      <c r="B179" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" s="17" customFormat="1">
+      <c r="B180" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" s="17" customFormat="1">
+      <c r="B181" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" s="17" customFormat="1">
+      <c r="B182" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" s="17" customFormat="1">
+      <c r="B183" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" s="17" customFormat="1">
+      <c r="B184" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" s="17" customFormat="1">
+      <c r="B185" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" s="17" customFormat="1">
+      <c r="B186" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" s="17" customFormat="1">
+      <c r="B187" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" s="17" customFormat="1">
+      <c r="B188" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" s="17" customFormat="1">
+      <c r="B189" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" s="17" customFormat="1">
+      <c r="B190" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" s="17" customFormat="1">
+      <c r="B191" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" s="17" customFormat="1">
+      <c r="B192" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" s="17" customFormat="1">
+      <c r="B193" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" s="17" customFormat="1">
+      <c r="B194" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" s="17" customFormat="1">
+      <c r="B195" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" s="17" customFormat="1">
+      <c r="B196" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" s="17" customFormat="1">
+      <c r="B197" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" s="17" customFormat="1">
+      <c r="B198" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" s="17" customFormat="1">
+      <c r="B199" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" s="17" customFormat="1">
+      <c r="B200" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" s="17" customFormat="1">
+      <c r="B201" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" s="17" customFormat="1">
+      <c r="B202" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" s="17" customFormat="1">
+      <c r="B203" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" s="17" customFormat="1">
+      <c r="B204" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" s="17" customFormat="1">
+      <c r="B207" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" s="17" customFormat="1">
+      <c r="B208" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" s="17" customFormat="1">
+      <c r="B209" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" s="17" customFormat="1">
+      <c r="B210" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" s="17" customFormat="1">
+      <c r="B211" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" s="17" customFormat="1">
+      <c r="B212" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" s="17" customFormat="1">
+      <c r="B213" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" s="17" customFormat="1">
+      <c r="B214" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" s="17" customFormat="1">
+      <c r="B215" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" s="17" customFormat="1">
+      <c r="B218" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" s="17" customFormat="1">
+      <c r="B219" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" s="17" customFormat="1">
+      <c r="B220" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" s="17" customFormat="1">
+      <c r="B221" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" s="17" customFormat="1">
+      <c r="B222" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" s="17" customFormat="1">
+      <c r="B223" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" s="17" customFormat="1">
+      <c r="B224" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" s="17" customFormat="1">
+      <c r="B225" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" s="17" customFormat="1">
+      <c r="B226" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" s="17" customFormat="1">
+      <c r="B230" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" s="17" customFormat="1">
+      <c r="B231" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" s="17" customFormat="1">
+      <c r="B232" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" s="17" customFormat="1">
+      <c r="B233" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" s="17" customFormat="1">
+      <c r="B234" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" s="17" customFormat="1">
+      <c r="B235" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" s="17" customFormat="1">
+      <c r="B236" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" s="17" customFormat="1">
+      <c r="B237" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" s="17" customFormat="1">
+      <c r="B238" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" s="17" customFormat="1">
+      <c r="B239" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" s="17" customFormat="1">
+      <c r="B240" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" s="17" customFormat="1">
+      <c r="B241" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" s="17" customFormat="1">
+      <c r="B242" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" s="17" customFormat="1">
+      <c r="B243" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" s="17" customFormat="1">
+      <c r="B244" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" s="17" customFormat="1">
+      <c r="B247" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" s="17" customFormat="1">
+      <c r="B248" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" s="17" customFormat="1">
+      <c r="B249" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" s="17" customFormat="1">
+      <c r="B250" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" s="17" customFormat="1">
+      <c r="B251" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" s="17" customFormat="1">
+      <c r="B254" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" s="17" customFormat="1">
+      <c r="B255" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" s="17" customFormat="1">
+      <c r="B256" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" s="17" customFormat="1">
+      <c r="B257" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" s="17" customFormat="1">
+      <c r="B260" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" s="17" customFormat="1">
+      <c r="B261" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" s="17" customFormat="1">
+      <c r="B262" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" s="17" customFormat="1">
+      <c r="B263" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" s="17" customFormat="1">
+      <c r="B264" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" s="17" customFormat="1">
+      <c r="B265" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" s="17" customFormat="1">
+      <c r="B266" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" s="17" customFormat="1">
+      <c r="B267" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" s="17" customFormat="1">
+      <c r="B268" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" s="17" customFormat="1">
+      <c r="B269" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" s="17" customFormat="1">
+      <c r="B270" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" s="17" customFormat="1">
+      <c r="B271" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" s="17" customFormat="1">
+      <c r="B272" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" s="17" customFormat="1">
+      <c r="B273" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" s="17" customFormat="1">
+      <c r="B274" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" s="17" customFormat="1">
+      <c r="B275" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" s="17" customFormat="1">
+      <c r="B276" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" s="17" customFormat="1">
+      <c r="B277" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" s="17" customFormat="1">
+      <c r="B280" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" s="17" customFormat="1">
+      <c r="B281" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" s="17" customFormat="1">
+      <c r="B282" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" s="17" customFormat="1">
+      <c r="B283" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" s="17" customFormat="1">
+      <c r="B284" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" s="17" customFormat="1">
+      <c r="B287" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" s="17" customFormat="1">
+      <c r="B288" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" s="17" customFormat="1">
+      <c r="B289" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" s="17" customFormat="1">
+      <c r="B290" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" s="17" customFormat="1">
+      <c r="B291" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
